--- a/igem_promoter.xlsx
+++ b/igem_promoter.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16245" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16245" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,13 +149,95 @@
   </si>
   <si>
     <t>http://parts.igem.org/Part:BBa_B0015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>To repopulate the microbiome after antibiotic treatment which in turn, will fortify the gut against bacterial disease</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:Baltimore_BioCrew</t>
+  </si>
+  <si>
+    <t>help people dealing with sepsis caused by Lipopolysaccharides (LPS) from gram-negative bacteria lysis</t>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:BOKU-Vienna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seek Heme And Reflect cracK (SHARK)</t>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:Tongji_China</t>
+  </si>
+  <si>
+    <t>promoter</t>
+  </si>
+  <si>
+    <t>indc</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> valunit</t>
+  </si>
+  <si>
+    <t>incubhr</t>
+  </si>
+  <si>
+    <t>incubtemp</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>BBa_J23101</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>copy number</t>
+  </si>
+  <si>
+    <t>R0051</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>37℃</t>
+  </si>
+  <si>
+    <t>J04450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +268,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -216,6 +316,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -225,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +366,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -524,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -891,4 +1032,456 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>950</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1350</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>500</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>